--- a/INT0002.UU.GroupEvents/Src/Files/INT0002.UU.GroupEvents.maps.xlsx
+++ b/INT0002.UU.GroupEvents/Src/Files/INT0002.UU.GroupEvents.maps.xlsx
@@ -9,18 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AterbudEvent" sheetId="1" r:id="rId1"/>
     <sheet name="AterkalladOmregistreringEvent" sheetId="2" r:id="rId2"/>
     <sheet name="AterkalladregistreringEvent" sheetId="3" r:id="rId3"/>
     <sheet name="ForvantatDeltagandeSkapadEvent" sheetId="4" r:id="rId4"/>
-    <sheet name="KurpaketeringstillfalleTillStat" sheetId="5" r:id="rId5"/>
-    <sheet name="KurstillfalleTillStatusEvent" sheetId="6" r:id="rId6"/>
+    <sheet name="KurstillfalleTillStatusEvent" sheetId="6" r:id="rId5"/>
+    <sheet name="RegistreringEvent" sheetId="8" r:id="rId6"/>
     <sheet name="OmregistreringEvent" sheetId="7" r:id="rId7"/>
-    <sheet name="RegistreringEvent" sheetId="8" r:id="rId8"/>
-    <sheet name="StudentAvlidenmarkeringEvent" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="78">
   <si>
     <t>Från</t>
   </si>
@@ -43,78 +41,21 @@
     <t>Logik</t>
   </si>
   <si>
-    <t>Ej klar</t>
-  </si>
-  <si>
-    <t>KurstillfalleTillStatusEvent/UtbildningsinstansUID</t>
-  </si>
-  <si>
-    <t>GroupEvent/@type</t>
-  </si>
-  <si>
-    <t>GroupEvent/Group/@type</t>
-  </si>
-  <si>
-    <t>GroupEvent/Group/uuig:Id</t>
-  </si>
-  <si>
-    <t>GroupEvent/Group/uuig:Type</t>
-  </si>
-  <si>
     <t>"Aterbud"</t>
   </si>
   <si>
-    <t>"GroupCreateRequestEvent"</t>
-  </si>
-  <si>
     <t>"CourseInstanceGroup"</t>
   </si>
   <si>
-    <t>KurstillfalleTillStatusEvent/StartperiodID, KurstillfalleTillStatusEvent/Utbildningstillfalleskod</t>
-  </si>
-  <si>
-    <t>KurstillfalleTillStatusEvent/StartperiodID +"_" + KurstillfalleTillStatusEvent/Utbildningstillfalleskod</t>
-  </si>
-  <si>
-    <t>GroupEvent/Group/Names</t>
-  </si>
-  <si>
-    <t>GroupEvent/Group/Names/Name</t>
-  </si>
-  <si>
-    <t>GroupEvent/Group/Names/Name/@lang</t>
-  </si>
-  <si>
-    <t>GroupEvent/Group/Semesters</t>
-  </si>
-  <si>
-    <t>GroupEvent/Group/Semesters/Semester</t>
-  </si>
-  <si>
-    <t>"Kurstillfalle"</t>
-  </si>
-  <si>
-    <t>Gör uppslag i ladok mySQL</t>
-  </si>
-  <si>
     <t>Mappning: MembershipEvent_to_StudentAvlidenmarkeringEvent</t>
   </si>
   <si>
-    <t>Source:http://schemas.microsoft.com/Sql/2008/05/TypedPolling/ladokevents</t>
-  </si>
-  <si>
-    <t>Target: http://schemas.ladok.se/studentinformation</t>
-  </si>
-  <si>
     <t>Beskrivning</t>
   </si>
   <si>
     <t>Mappning: AterbudEvent_to_InternalGroupEvent</t>
   </si>
   <si>
-    <t>Source: http://schemas.ladok.se/studiedeltagande</t>
-  </si>
-  <si>
     <t>/AterbudEvent</t>
   </si>
   <si>
@@ -166,12 +107,6 @@
     <t>PersonNumber</t>
   </si>
   <si>
-    <t>UtbildningstillfalleUID</t>
-  </si>
-  <si>
-    <t>StudentUID</t>
-  </si>
-  <si>
     <t>/uuig:Names</t>
   </si>
   <si>
@@ -181,15 +116,9 @@
     <t>/uuig:Semesters</t>
   </si>
   <si>
-    <t>/uuig:Semester</t>
-  </si>
-  <si>
     <t>Blank värde</t>
   </si>
   <si>
-    <t>/uuig:Description</t>
-  </si>
-  <si>
     <t>Fast värde "Omregistrering"</t>
   </si>
   <si>
@@ -208,9 +137,6 @@
     <t>Fast värde "Registrering"</t>
   </si>
   <si>
-    <t>KurstillfalleUID</t>
-  </si>
-  <si>
     <t>Mappning: ForvantatDeltagandeSkapadEvent_to_InternalGroupEvent</t>
   </si>
   <si>
@@ -233,23 +159,125 @@
   </si>
   <si>
     <t>/RegistreringEvent</t>
+  </si>
+  <si>
+    <t>/AterbudEnvelope</t>
+  </si>
+  <si>
+    <t>HandelseUID</t>
+  </si>
+  <si>
+    <t>/Utbildningstillfalle</t>
+  </si>
+  <si>
+    <t>Tillfallesperioder/ForstaUndervisningsdatum</t>
+  </si>
+  <si>
+    <t>EventContext/Anvandarnamn</t>
+  </si>
+  <si>
+    <t>Tillfallesperioder/ForstaUndervisningsdatum Tillfalleskod</t>
+  </si>
+  <si>
+    <t>För att skapa giltig output så läggs det in default värden i de fält som är mandatory men som inte behövs typ &lt;empty&gt; eller 0.
+Dessa mappningar visas inte i detta dokument.</t>
+  </si>
+  <si>
+    <t>"ladok"</t>
+  </si>
+  <si>
+    <t>@start</t>
+  </si>
+  <si>
+    <t>Calculate.Semesters används för att kalkylera semester från angivet datum md formatet yyyyM</t>
+  </si>
+  <si>
+    <t>Calculate.Semesters används för att kalkylera semester från angivet datum md formatet yyyyM
+[*semester*]_[Tillfalleskod]</t>
+  </si>
+  <si>
+    <t>../Student</t>
+  </si>
+  <si>
+    <t>Uid
+Personnummer</t>
+  </si>
+  <si>
+    <t>Uid primärt och Personnummer sekundärt</t>
+  </si>
+  <si>
+    <t>Personnummer</t>
+  </si>
+  <si>
+    <t>/AterkalladOmregistreringEnvelope</t>
+  </si>
+  <si>
+    <t>Source: http://ladok.uu.envelope.schemas</t>
+  </si>
+  <si>
+    <t>/AterkalladregistreringEnveope</t>
+  </si>
+  <si>
+    <t>/ForvantatDeltagandeSkapadEnvelope</t>
+  </si>
+  <si>
+    <t>/KurstillfalleTillStatusEnvelope</t>
+  </si>
+  <si>
+    <t>/KurstillfalleTillStatusEvent</t>
+  </si>
+  <si>
+    <t>Fast värde "Kurstillfalle"</t>
+  </si>
+  <si>
+    <t>Kurstillfallesperioder/ForstaUndervisningsdatum Utbildningstillfalleskod</t>
+  </si>
+  <si>
+    <t>Kurstillfallesperioder/ForstaUndervisningsdatum</t>
+  </si>
+  <si>
+    <t>Calculate.Semesters används för att kalkylera semester från angivet datum md formatet yyyyM
+[*semester*]_[Utbildningstillfalleskod]</t>
+  </si>
+  <si>
+    <t>/Utbildningsinstans/Benamningar/Benamning</t>
+  </si>
+  <si>
+    <t>/@lang</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Sprakkod</t>
+  </si>
+  <si>
+    <t>../KurstillfalleTillStatusEvent</t>
+  </si>
+  <si>
+    <t>../Group</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Benämning med Språkkod = "sv"</t>
+  </si>
+  <si>
+    <t>/OmregistreringEnvelope</t>
+  </si>
+  <si>
+    <t>/RegistreringEnvelope</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,17 +315,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,36 +339,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
-    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,178 +665,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
-        <v>41</v>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -798,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,113 +891,115 @@
     <col min="4" max="4" width="64.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>50</v>
+      <c r="A8" t="s">
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>33</v>
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -926,44 +1007,58 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
-        <v>41</v>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -977,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,113 +1085,115 @@
     <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="A5" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>50</v>
+      <c r="A8" t="s">
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>33</v>
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1104,56 +1201,67 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1166,126 +1274,128 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>50</v>
+      <c r="A8" t="s">
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>33</v>
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1293,56 +1403,67 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
-        <v>41</v>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1355,184 +1476,187 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1541,137 +1665,138 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId1" display="GroupEvent/@type"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="59.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>50</v>
+      <c r="A8" t="s">
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>33</v>
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1679,56 +1804,70 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
-        <v>41</v>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="3"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1739,128 +1878,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="59.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>33</v>
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1868,56 +2016,70 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="3"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1926,40 +2088,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/INT0002.UU.GroupEvents/Src/Files/INT0002.UU.GroupEvents.maps.xlsx
+++ b/INT0002.UU.GroupEvents/Src/Files/INT0002.UU.GroupEvents.maps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AterbudEvent" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="80">
   <si>
     <t>Från</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>/RegistreringEnvelope</t>
+  </si>
+  <si>
+    <t>Fornamn</t>
+  </si>
+  <si>
+    <t>Efternamn</t>
   </si>
 </sst>
 </file>
@@ -352,12 +358,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -366,9 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -381,6 +378,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -682,17 +688,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -715,10 +721,10 @@
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -727,8 +733,8 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
@@ -737,8 +743,8 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -747,8 +753,8 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -757,8 +763,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -767,8 +773,8 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
@@ -789,14 +795,14 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -818,14 +824,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -845,14 +851,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -892,17 +898,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -986,14 +992,14 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1015,14 +1021,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1042,14 +1048,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1086,17 +1092,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -1180,14 +1186,14 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1209,14 +1215,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1236,14 +1242,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1276,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1285,20 +1291,21 @@
     <col min="1" max="1" width="52.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -1382,14 +1389,14 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1411,14 +1418,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1438,14 +1445,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1458,9 +1465,22 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
@@ -1479,7 +1499,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,17 +1511,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -1579,14 +1599,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1622,32 +1642,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="14" t="s">
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1676,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1689,17 +1709,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -1783,14 +1803,14 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1812,14 +1832,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1839,14 +1859,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1859,12 +1879,22 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="2"/>
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
@@ -1882,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1895,17 +1925,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -1995,14 +2025,14 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2024,14 +2054,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2051,14 +2081,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2071,12 +2101,22 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="2"/>
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>

--- a/INT0002.UU.GroupEvents/Src/Files/INT0002.UU.GroupEvents.maps.xlsx
+++ b/INT0002.UU.GroupEvents/Src/Files/INT0002.UU.GroupEvents.maps.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="82">
   <si>
     <t>Från</t>
   </si>
@@ -274,13 +274,19 @@
   </si>
   <si>
     <t>Efternamn</t>
+  </si>
+  <si>
+    <t>Utbildningstillfället som tillhör Eventet</t>
+  </si>
+  <si>
+    <t>/Utbildningstillfalle[Uid = KurstillfalleUID]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +313,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +365,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -388,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -1913,7 +1928,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2021,7 +2036,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -2127,5 +2145,6 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>